--- a/Documentation/Soft Copies/Event Table - Latest.xlsx
+++ b/Documentation/Soft Copies/Event Table - Latest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Desktop\APC Life\3rd Year 3rd Term\SOFTDEV - QUALITY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leiza40\Desktop\Term 3\SOFTDEVQUALITY - Casino\SOFTDEV-QUALITY\Documentation\Soft Copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13155" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Event</t>
   </si>
@@ -127,15 +127,6 @@
     <t>Fill up Volunteer Form</t>
   </si>
   <si>
-    <t>Admin managing information</t>
-  </si>
-  <si>
-    <t>Information managing</t>
-  </si>
-  <si>
-    <t>Manage Information</t>
-  </si>
-  <si>
     <t>List of Makeshift Morgue</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
   </si>
   <si>
     <t>Updated status</t>
-  </si>
-  <si>
-    <t>Data Inputs</t>
   </si>
   <si>
     <t>Admin validates post requests</t>
@@ -553,7 +541,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,7 +638,7 @@
     </row>
     <row r="5" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
@@ -662,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -683,7 +671,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -704,7 +692,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>8</v>
@@ -725,7 +713,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>24</v>
@@ -734,44 +722,26 @@
     </row>
     <row r="9" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">

--- a/Documentation/Soft Copies/Event Table - Latest.xlsx
+++ b/Documentation/Soft Copies/Event Table - Latest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Event</t>
   </si>
@@ -102,9 +102,6 @@
 User</t>
   </si>
   <si>
-    <t>User searches/views list of makeshift morgue</t>
-  </si>
-  <si>
     <t>Validate Post</t>
   </si>
   <si>
@@ -143,6 +140,12 @@
   </si>
   <si>
     <t>Produce summary reports for dead/missing people</t>
+  </si>
+  <si>
+    <t>Search/View List of near Makeshift Morgue</t>
+  </si>
+  <si>
+    <t>User searches/views list of near makeshift morgue</t>
   </si>
 </sst>
 </file>
@@ -540,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,19 +641,19 @@
     </row>
     <row r="5" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -659,19 +662,19 @@
     </row>
     <row r="6" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -683,16 +686,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>8</v>
@@ -704,16 +707,16 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>24</v>
@@ -722,7 +725,7 @@
     </row>
     <row r="9" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -737,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5"/>
     </row>

--- a/Documentation/Soft Copies/Event Table - Latest.xlsx
+++ b/Documentation/Soft Copies/Event Table - Latest.xlsx
@@ -124,9 +124,6 @@
     <t>Fill up Volunteer Form</t>
   </si>
   <si>
-    <t>List of Makeshift Morgue</t>
-  </si>
-  <si>
     <t>Volunteer Form Details</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>User searches/views list of near makeshift morgue</t>
+  </si>
+  <si>
+    <t>List of near Makeshift Morgue</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -641,7 +641,7 @@
     </row>
     <row r="5" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -653,7 +653,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="6" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
@@ -671,10 +671,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -695,7 +695,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>8</v>
@@ -716,7 +716,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>24</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="9" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>

--- a/Documentation/Soft Copies/Event Table - Latest.xlsx
+++ b/Documentation/Soft Copies/Event Table - Latest.xlsx
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
